--- a/base de datos.xlsx
+++ b/base de datos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\iot\ServerIOTPico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269C899A-C03D-4E01-BBA4-44094B4910E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3582236-C0D0-4BA8-B602-579EF03017F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="645" xr2:uid="{1CF36D41-2EC3-4E30-95E7-FD7A17B93AC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="645" activeTab="2" xr2:uid="{1CF36D41-2EC3-4E30-95E7-FD7A17B93AC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Estacion" sheetId="2" r:id="rId2"/>
-    <sheet name="Cliente" sheetId="3" r:id="rId3"/>
+    <sheet name="Empresa" sheetId="3" r:id="rId3"/>
     <sheet name="Flota" sheetId="4" r:id="rId4"/>
     <sheet name="Vehiculo" sheetId="5" r:id="rId5"/>
     <sheet name="STOCK_VEHICULO" sheetId="16" r:id="rId6"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
   <si>
     <t>Email</t>
   </si>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>ID_CONDUCTOR</t>
+  </si>
+  <si>
+    <t>Ruc</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -774,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010CE3B5-179E-4BF5-BB57-B86CB9A2F18F}">
   <dimension ref="A2:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -1174,20 +1180,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0687A7-058D-4C06-B3A1-6B2482CBB892}">
-  <dimension ref="B2:G2"/>
+  <dimension ref="B2:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="55.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>16</v>
       </c>
@@ -1198,12 +1204,18 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/base de datos.xlsx
+++ b/base de datos.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\iot\ServerIOTPico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3582236-C0D0-4BA8-B602-579EF03017F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0486D469-F33A-4830-AE5F-5B8534B5CE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="645" activeTab="2" xr2:uid="{1CF36D41-2EC3-4E30-95E7-FD7A17B93AC5}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="1035" windowWidth="20490" windowHeight="9885" tabRatio="645" activeTab="5" xr2:uid="{1CF36D41-2EC3-4E30-95E7-FD7A17B93AC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Estacion" sheetId="2" r:id="rId2"/>
     <sheet name="Empresa" sheetId="3" r:id="rId3"/>
-    <sheet name="Flota" sheetId="4" r:id="rId4"/>
-    <sheet name="Vehiculo" sheetId="5" r:id="rId5"/>
-    <sheet name="STOCK_VEHICULO" sheetId="16" r:id="rId6"/>
-    <sheet name="Conductor" sheetId="6" r:id="rId7"/>
-    <sheet name="Surtidor" sheetId="8" r:id="rId8"/>
+    <sheet name="Surtidor" sheetId="8" r:id="rId4"/>
+    <sheet name="Flota" sheetId="4" r:id="rId5"/>
+    <sheet name="Vehiculo" sheetId="5" r:id="rId6"/>
+    <sheet name="STOCK_VEHICULO" sheetId="16" r:id="rId7"/>
+    <sheet name="Conductor" sheetId="6" r:id="rId8"/>
     <sheet name="Tanque" sheetId="11" r:id="rId9"/>
     <sheet name="Pistola" sheetId="9" r:id="rId10"/>
     <sheet name="Combustible" sheetId="7" r:id="rId11"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="123">
   <si>
     <t>Email</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Numero de cuenta</t>
   </si>
   <si>
-    <t>Centro de costo Operativo</t>
-  </si>
-  <si>
     <t>ID_flota</t>
   </si>
   <si>
@@ -411,13 +408,25 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>RUC</t>
+  </si>
+  <si>
+    <t>Centro de Costo</t>
+  </si>
+  <si>
+    <t>Codigo_Flota</t>
+  </si>
+  <si>
+    <t>juan.carrasco@minsur.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,6 +446,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -455,17 +472,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -780,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010CE3B5-179E-4BF5-BB57-B86CB9A2F18F}">
   <dimension ref="A2:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -829,7 +849,7 @@
         <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -850,16 +870,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -885,22 +905,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -920,19 +940,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -952,46 +972,46 @@
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
         <v>84</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N3" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" t="s">
         <v>85</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1011,37 +1031,37 @@
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
         <v>90</v>
       </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>91</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>92</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" t="s">
         <v>93</v>
       </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>94</v>
       </c>
-      <c r="K3" t="s">
-        <v>95</v>
-      </c>
       <c r="L3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1061,25 +1081,25 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
         <v>97</v>
       </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>98</v>
-      </c>
-      <c r="H3" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1099,40 +1119,40 @@
   <sheetData>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
         <v>100</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>101</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>102</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>103</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>104</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>105</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>106</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>107</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>108</v>
-      </c>
-      <c r="K3" t="s">
-        <v>109</v>
       </c>
       <c r="L3" t="s">
         <v>9</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1165,7 @@
   <dimension ref="B3:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0687A7-058D-4C06-B3A1-6B2482CBB892}">
   <dimension ref="B2:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1204,16 +1224,16 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
@@ -1225,45 +1245,105 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156DB095-71AF-4135-A8E9-E09EEFDB7A2C}">
-  <dimension ref="B2:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB712F4E-90DB-4297-AD49-8ABCEA8C0E6D}">
+  <dimension ref="B2:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156DB095-71AF-4135-A8E9-E09EEFDB7A2C}">
+  <dimension ref="B2:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{9E3AF88A-4674-43E5-ABDF-DACC7213F392}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FF2F9D-3877-49BA-A40B-3C5A0BC56AB8}">
   <dimension ref="B2:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="B2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,52 +1354,52 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B46BAC2-9BEA-4BA8-A210-E2C6578E3780}">
   <dimension ref="B3:J3"/>
   <sheetViews>
@@ -1339,31 +1419,31 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
         <v>111</v>
       </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>112</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>113</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>114</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>115</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>116</v>
-      </c>
-      <c r="J3" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1371,7 +1451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD1F7CF-5606-4C0D-A0F0-F2C1C6BCE2DE}">
   <dimension ref="B2:S2"/>
   <sheetViews>
@@ -1391,102 +1471,58 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>
       </c>
       <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>42</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>44</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>48</v>
-      </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s">
         <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB712F4E-90DB-4297-AD49-8ABCEA8C0E6D}">
-  <dimension ref="B2:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1506,16 +1542,16 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
